--- a/results/in_house/Listeria.xlsx
+++ b/results/in_house/Listeria.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C2" t="n">
         <v>58</v>
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C3" t="n">
         <v>58</v>
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C4" t="n">
         <v>58</v>
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C5" t="n">
         <v>58</v>
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C6" t="n">
         <v>58</v>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C7" t="n">
         <v>58</v>
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C8" t="n">
         <v>58</v>
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C9" t="n">
         <v>58</v>
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C10" t="n">
         <v>58</v>
@@ -569,7 +569,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C11" t="n">
         <v>58</v>
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C12" t="n">
         <v>58</v>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C13" t="n">
         <v>58</v>
@@ -608,7 +608,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" t="n">
         <v>58</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C15" t="n">
         <v>58</v>
@@ -634,7 +634,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C16" t="n">
         <v>58</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C17" t="n">
         <v>58</v>
@@ -660,7 +660,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="n">
         <v>58</v>
@@ -673,7 +673,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="n">
         <v>58</v>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="n">
         <v>58</v>
@@ -699,7 +699,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" t="n">
         <v>58</v>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" t="n">
         <v>58</v>
